--- a/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X199"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11658,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -11667,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -11679,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>-2372</v>
+        <v>-2374</v>
       </c>
       <c r="R194">
         <v>0</v>
@@ -11697,10 +11700,10 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="X194">
-        <v>-2372</v>
+        <v>-2374</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -11732,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -11741,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -11753,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>-2324</v>
+        <v>-2327</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -11771,10 +11774,10 @@
         <v>0</v>
       </c>
       <c r="W195">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="X195">
-        <v>-2324</v>
+        <v>-2327</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -11806,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -11815,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -11827,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>-2276</v>
+        <v>-2279</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -11845,10 +11848,10 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="X196">
-        <v>-2276</v>
+        <v>-2279</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -11880,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -11889,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -11901,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>-2197</v>
+        <v>-2200</v>
       </c>
       <c r="R197">
         <v>0</v>
@@ -11919,10 +11922,10 @@
         <v>0</v>
       </c>
       <c r="W197">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="X197">
-        <v>-2197</v>
+        <v>-2200</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -11954,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -11963,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -11975,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>-2134</v>
+        <v>-2137</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -11993,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="X198">
-        <v>-2134</v>
+        <v>-2137</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -12028,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -12037,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -12049,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>-2071</v>
+        <v>-2074</v>
       </c>
       <c r="R199">
         <v>0</v>
@@ -12067,10 +12070,84 @@
         <v>0</v>
       </c>
       <c r="W199">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="X199">
-        <v>-2071</v>
+        <v>-2074</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
+      <c r="A200" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>2007</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>2007</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>-2007</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>2007</v>
+      </c>
+      <c r="X200">
+        <v>-2007</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Serie</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X200"/>
+  <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12150,6 +12153,80 @@
         <v>-2007</v>
       </c>
     </row>
+    <row r="201" spans="1:24">
+      <c r="A201" t="s">
+        <v>223</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1942</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>1942</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>-1942</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>1942</v>
+      </c>
+      <c r="X201">
+        <v>-1942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X201"/>
+  <dimension ref="A1:X202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11664,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -11673,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -11685,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>-2374</v>
+        <v>-2381</v>
       </c>
       <c r="R194">
         <v>0</v>
@@ -11703,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="X194">
-        <v>-2374</v>
+        <v>-2381</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -11738,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>2327</v>
+        <v>2338</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -11747,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>2327</v>
+        <v>2338</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -11759,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>-2327</v>
+        <v>-2338</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -11777,10 +11780,10 @@
         <v>0</v>
       </c>
       <c r="W195">
-        <v>2327</v>
+        <v>2338</v>
       </c>
       <c r="X195">
-        <v>-2327</v>
+        <v>-2338</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -11812,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>2279</v>
+        <v>2294</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -11821,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>2279</v>
+        <v>2294</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -11833,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>-2279</v>
+        <v>-2294</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -11851,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>2279</v>
+        <v>2294</v>
       </c>
       <c r="X196">
-        <v>-2279</v>
+        <v>-2294</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -11886,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -11895,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -11907,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>-2200</v>
+        <v>-2211</v>
       </c>
       <c r="R197">
         <v>0</v>
@@ -11925,10 +11928,10 @@
         <v>0</v>
       </c>
       <c r="W197">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="X197">
-        <v>-2200</v>
+        <v>-2211</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -11960,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -11969,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -11981,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>-2137</v>
+        <v>-2148</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -11999,10 +12002,10 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="X198">
-        <v>-2137</v>
+        <v>-2148</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -12034,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -12043,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -12055,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>-2074</v>
+        <v>-2085</v>
       </c>
       <c r="R199">
         <v>0</v>
@@ -12073,10 +12076,10 @@
         <v>0</v>
       </c>
       <c r="W199">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="X199">
-        <v>-2074</v>
+        <v>-2085</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -12108,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -12117,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -12129,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>-2007</v>
+        <v>-2020</v>
       </c>
       <c r="R200">
         <v>0</v>
@@ -12147,10 +12150,10 @@
         <v>0</v>
       </c>
       <c r="W200">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="X200">
-        <v>-2007</v>
+        <v>-2020</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -12182,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -12191,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -12203,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>-1942</v>
+        <v>-1955</v>
       </c>
       <c r="R201">
         <v>0</v>
@@ -12221,10 +12224,84 @@
         <v>0</v>
       </c>
       <c r="W201">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="X201">
-        <v>-1942</v>
+        <v>-1955</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
+      <c r="A202" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1891</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>1891</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>-1891</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>1891</v>
+      </c>
+      <c r="X202">
+        <v>-1891</v>
       </c>
     </row>
   </sheetData>
